--- a/biology/Botanique/Stenospermation_ulei/Stenospermation_ulei.xlsx
+++ b/biology/Botanique/Stenospermation_ulei/Stenospermation_ulei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stenospermation ulei est une espèce de la famille des Araceae. C'est une espèce de plante épiphyte[1],[2] Il s'agit indigène de la région Nord du Brésil, du Guyana et du Venezuela[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stenospermation ulei est une espèce de la famille des Araceae. C'est une espèce de plante épiphyte, Il s'agit indigène de la région Nord du Brésil, du Guyana et du Venezuela.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La hauteur de la tige de la plante est d'environ 2 m, tandis que la longueur de son limbe est de 1,3 à 1,5 cm[3]. De plus, il pousse principalement dans le biome tropical humide[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La hauteur de la tige de la plante est d'environ 2 m, tandis que la longueur de son limbe est de 1,3 à 1,5 cm. De plus, il pousse principalement dans le biome tropical humide.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Stenospermation ulei K.Krause[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Stenospermation ulei K.Krause.
 </t>
         </is>
       </c>
